--- a/data/trans_camb/P14B24_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14B24_2016_2023-Estudios-trans_camb.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>3.636337942315416</v>
+        <v>3.636337942315415</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.420859519330003</v>
+        <v>1.420859519330006</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.453566146817015</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.909785290211453</v>
+        <v>1.794028846115565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9580215062088867</v>
+        <v>-0.86757025582221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8547291466226719</v>
+        <v>0.8681229962041564</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.824507323449405</v>
+        <v>5.756763884620294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.82641868621142</v>
+        <v>3.760471207861751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.189792394559788</v>
+        <v>4.173711251432145</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>2.558347940566248</v>
+        <v>2.558347940566247</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1805408533525749</v>
+        <v>0.1805408533525753</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4821586268736011</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7988398043510636</v>
+        <v>0.7117785637529748</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1007699801847891</v>
+        <v>-0.1080169344297842</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1405780821889512</v>
+        <v>0.1448508128978507</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.715447398659792</v>
+        <v>6.32086673417307</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6071846012219166</v>
+        <v>0.5586237089804303</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9400546847229818</v>
+        <v>0.9755738194421296</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>1.013533937360263</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.529633413463411</v>
+        <v>2.52963341346341</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1.768580634751395</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2920482732116216</v>
+        <v>0.2807141181724109</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.402833466286313</v>
+        <v>1.267335755909627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.032086462752762</v>
+        <v>1.036666432210513</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.950843967494751</v>
+        <v>1.929251778361119</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.910276433180425</v>
+        <v>3.716633297294663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.505013395034065</v>
+        <v>2.502665183967495</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.8570129452053701</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.7776553993364728</v>
+        <v>0.7776553993364725</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.805526307726772</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.136547097498352</v>
+        <v>0.1395764004095889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3417435942018182</v>
+        <v>0.2847197571799302</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4145040416546116</v>
+        <v>0.4036836891195174</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.067579819623608</v>
+        <v>2.254063076922989</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.417150235073273</v>
+        <v>1.354673335282771</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.338221589358972</v>
+        <v>1.373881070222102</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.322345025207835</v>
+        <v>2.322345025207836</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>3.057849896993715</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.105777727366999</v>
+        <v>1.142093078002918</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.666086344456862</v>
+        <v>1.813950110128836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.728883734207015</v>
+        <v>1.838243940079298</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.276026066913387</v>
+        <v>4.258350317607254</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.584281090551563</v>
+        <v>4.732479104222863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.949327759560629</v>
+        <v>3.866748748314518</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6.858222715728537</v>
+        <v>6.85822271572854</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>4.478152654788818</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5731302216173509</v>
+        <v>0.962986746113252</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.143430733998933</v>
+        <v>1.068613450971892</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.491646952092963</v>
+        <v>1.73091109638203</v>
       </c>
     </row>
     <row r="21">
@@ -862,10 +862,10 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>20.83594073482561</v>
+        <v>21.01335029125188</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>15.07888659376696</v>
+        <v>15.25074055793367</v>
       </c>
     </row>
     <row r="22">
@@ -883,7 +883,7 @@
         <v>1.660641993935348</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.999235472900163</v>
+        <v>1.999235472900164</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.844285330226086</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.014886051106295</v>
+        <v>1.01894535378736</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9044468175916294</v>
+        <v>0.9085336176234946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.30634398430851</v>
+        <v>1.2907292241069</v>
       </c>
     </row>
     <row r="24">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.389226265031457</v>
+        <v>2.314825255513402</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.950016719358159</v>
+        <v>2.91395033157871</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.527632715785153</v>
+        <v>2.473039205040284</v>
       </c>
     </row>
     <row r="25">
@@ -934,10 +934,10 @@
         <v>1.510675174865786</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.481333522585575</v>
+        <v>0.4813335225855752</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6931451000826238</v>
+        <v>0.6931451000826241</v>
       </c>
     </row>
     <row r="26">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6877565993287302</v>
+        <v>0.7505287598923225</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1883510980002945</v>
+        <v>0.1930379115616509</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4385182628801435</v>
+        <v>0.4184972163726492</v>
       </c>
     </row>
     <row r="27">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.717704724353577</v>
+        <v>2.779713810346374</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8054911202791458</v>
+        <v>0.7963828384487044</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.064203442132829</v>
+        <v>1.046938265802908</v>
       </c>
     </row>
     <row r="28">
